--- a/data/processed-english-db.xlsx
+++ b/data/processed-english-db.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Proximates" sheetId="1" r:id="rId1"/>
+    <sheet name="Proximates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,12 +408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -584,6 +658,13 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>WATER</t>
@@ -786,6 +867,13 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>Water</t>
@@ -1008,11 +1096,13 @@
           <t>FC</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>Fruits</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>87.3</t>
@@ -1058,6 +1148,7 @@
           <t>Tr</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>11.6</t>
@@ -1103,6 +1194,7 @@
           <t>N</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
           <t>4.43</t>
@@ -1138,16 +1230,25 @@
           <t>7.11</t>
         </is>
       </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1180,11 +1281,13 @@
           <t>FC</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Updated 2019</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>21.6</t>
@@ -1230,6 +1333,7 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -1275,6 +1379,7 @@
           <t>N</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
           <t>4.43</t>
@@ -1290,6 +1395,11 @@
           <t>10.19</t>
         </is>
       </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>9.00</t>
@@ -1305,6 +1415,7 @@
           <t>2.71</t>
         </is>
       </c>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>2.80</t>
@@ -1367,11 +1478,13 @@
           <t>FC</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>Updated 2014</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>21.6</t>
@@ -1412,6 +1525,7 @@
           <t>Tr</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t>20.2</t>
@@ -1422,6 +1536,7 @@
           <t>1.6</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>4.8</t>
@@ -1457,6 +1572,15 @@
           <t>1.4</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
           <t>9.00</t>
@@ -1467,6 +1591,8 @@
           <t>13.84</t>
         </is>
       </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
           <t>18.40</t>
@@ -1477,11 +1603,15 @@
           <t>1.80</t>
         </is>
       </c>
+      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr">
         <is>
           <t>0.20</t>
         </is>
       </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr">
         <is>
           <t>0.0</t>
@@ -1489,6 +1619,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>